--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/all-profiles.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:09:05+00:00</t>
+    <t>2023-02-08T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
